--- a/需求文档/游戏外功能需求.xlsx
+++ b/需求文档/游戏外功能需求.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22568\Desktop\git相关笔记\Boxshin\需求文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A20940-5C9E-4A9B-9BE6-BE3D9E2353EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>界面描述</t>
   </si>
@@ -85,21 +79,87 @@
     <t>排行榜界面</t>
   </si>
   <si>
+    <t>不必要</t>
+  </si>
+  <si>
+    <t>均需要一个返回主菜单按键</t>
+  </si>
+  <si>
     <t>设置界面</t>
   </si>
   <si>
+    <t>音乐设置界面跳转按钮</t>
+  </si>
+  <si>
+    <t>游戏介绍界面跳转</t>
+  </si>
+  <si>
+    <t>音乐设置</t>
+  </si>
+  <si>
+    <t>小组介绍界面跳转</t>
+  </si>
+  <si>
+    <t>音效开关</t>
+  </si>
+  <si>
     <t>音乐界面</t>
+  </si>
+  <si>
+    <t>音效音效分别选择</t>
+  </si>
+  <si>
+    <t>游戏介绍</t>
+  </si>
+  <si>
+    <t>音乐开关</t>
+  </si>
+  <si>
+    <t>音乐选择</t>
+  </si>
+  <si>
+    <t>小组介绍</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>调节声音大小</t>
   </si>
   <si>
     <t>游戏介绍和
 小组介绍界面</t>
+  </si>
+  <si>
+    <t>文本显示</t>
+  </si>
+  <si>
+    <t>1/........................</t>
+  </si>
+  <si>
+    <t>2/........................</t>
+  </si>
+  <si>
+    <t>3/........................</t>
+  </si>
+  <si>
+    <t>4/........................</t>
+  </si>
+  <si>
+    <t>5/........................</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,18 +172,154 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +332,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,43 +542,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -440,450 +1126,676 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="22.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="58.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="29" customHeight="1" spans="1:14">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="29" customHeight="1" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" ht="29" customHeight="1" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" ht="22.95" customHeight="1" spans="1:14">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:14">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="4:10">
+      <c r="D18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="D9:D16"/>
     <mergeCell ref="B1:C3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/需求文档/游戏外功能需求.xlsx
+++ b/需求文档/游戏外功能需求.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>界面描述</t>
   </si>
@@ -58,28 +58,25 @@
     <t>点击之后跳转到id输入和角色选择界面</t>
   </si>
   <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>包括音乐（包括音乐选择和声音大小调节），游戏介绍（游戏玩法在此介绍）,小组介绍（感觉可以整点活）</t>
+  </si>
+  <si>
     <t>排行榜</t>
   </si>
   <si>
-    <t>点击之后显示排行榜，这次可以设计一下排行榜的外观了</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>包括音乐（包括音乐选择和声音大小调节），游戏介绍（游戏玩法在此介绍）,小组介绍（感觉可以整点活）</t>
-  </si>
-  <si>
     <t>退出游戏</t>
   </si>
   <si>
     <t>点击以后确认是否退出即可</t>
   </si>
   <si>
-    <t>排行榜界面</t>
-  </si>
-  <si>
-    <t>不必要</t>
+    <t>地图界面</t>
+  </si>
+  <si>
+    <t>关卡选择</t>
   </si>
   <si>
     <t>均需要一个返回主菜单按键</t>
@@ -1135,7 +1132,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1214,12 +1211,8 @@
     <row r="6" ht="29" customHeight="1" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -1236,15 +1229,15 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1257,15 +1250,15 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1276,14 +1269,16 @@
     </row>
     <row r="9" ht="22.95" customHeight="1" spans="1:14">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -1297,13 +1292,13 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="4"/>
@@ -1317,9 +1312,9 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:16">
       <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="5"/>
@@ -1327,97 +1322,97 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:16">
       <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:16">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:16">
       <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:16">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1429,10 +1424,10 @@
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1447,14 +1442,14 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="4:10">
       <c r="D18" s="3"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1467,7 +1462,7 @@
       <c r="D19" s="3"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1480,7 +1475,7 @@
       <c r="D20" s="3"/>
       <c r="F20" s="5"/>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1493,7 +1488,7 @@
       <c r="D21" s="3"/>
       <c r="F21" s="5"/>
       <c r="G21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1506,7 +1501,7 @@
       <c r="D22" s="3"/>
       <c r="F22" s="5"/>
       <c r="G22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1520,7 +1515,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
